--- a/output/item/모니터/2021-12-19_모니터.xlsx
+++ b/output/item/모니터/2021-12-19_모니터.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>188630</t>
+          <t>188670</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20211118104344.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20211118104344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>341800</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>341850</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>420000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>420000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>237000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1617300</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4267,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>벤큐 ZOWIE XL2731</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435628535</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243562/22435628535.20211126161127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>벤큐 ZOWIE XL2731</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435628535</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243562/22435628535.20211126161127.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>644860</t>
+          <t>567000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -5601,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32R590</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17650306747</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1765030/17650306747.20210203134432.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>삼성전자 삼성 U32R590</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17650306747</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1765030/17650306747.20210203134432.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>삼성전자 삼성 C27F391</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9681100715</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9681100/9681100715.20200915114554.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>778990</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C27F391</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9681100715</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9681100/9681100715.20200915114554.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>238000</t>
+          <t>778990</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5864,12 +5864,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6123,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 삼성 C27F390</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9489557554</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9489557/9489557554.20210203132811.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6181,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 EDGE ED2420NT 유케어 QHD 프리싱크 75</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27344486524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2734448/27344486524.20210528141223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
